--- a/result/movielens/md结果统计.xlsx
+++ b/result/movielens/md结果统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\researcher\recomendersystem\code\trendrec\result\movielens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9340188-A51F-419B-83A5-93AE741F47E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF79546-B4A4-4C8E-9EFC-30FE3016E02D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{438B4E3A-C7F7-4D3B-9EB2-68CA225BE5A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{438B4E3A-C7F7-4D3B-9EB2-68CA225BE5A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2518,16 +2518,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2852,15 +2852,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFA348F-3696-402B-8633-759E86564A9E}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J21"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>-1</v>
       </c>
@@ -2891,8 +2891,11 @@
       <c r="J1">
         <v>0.100064281</v>
       </c>
+      <c r="K1">
+        <v>0.12235012534316902</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-0.9</v>
       </c>
@@ -2923,8 +2926,11 @@
       <c r="J2">
         <v>8.9803605999999994E-2</v>
       </c>
+      <c r="K2">
+        <v>0.12807415697205299</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-0.8</v>
       </c>
@@ -2955,8 +2961,11 @@
       <c r="J3">
         <v>7.8965489999999999E-2</v>
       </c>
+      <c r="K3">
+        <v>0.13300468946954702</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-0.7</v>
       </c>
@@ -2987,8 +2996,11 @@
       <c r="J4">
         <v>6.7818372000000002E-2</v>
       </c>
+      <c r="K4">
+        <v>0.13714210330597698</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-0.6</v>
       </c>
@@ -3019,8 +3031,11 @@
       <c r="J5">
         <v>5.6641176000000001E-2</v>
       </c>
+      <c r="K5">
+        <v>0.14049855715109699</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-0.5</v>
       </c>
@@ -3051,8 +3066,11 @@
       <c r="J6">
         <v>4.5696737000000001E-2</v>
       </c>
+      <c r="K6">
+        <v>0.14309692766881899</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-0.4</v>
       </c>
@@ -3083,8 +3101,11 @@
       <c r="J7">
         <v>3.5210789999999999E-2</v>
       </c>
+      <c r="K7">
+        <v>0.144969677045442</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-0.3</v>
       </c>
@@ -3115,8 +3136,11 @@
       <c r="J8">
         <v>2.5359659999999999E-2</v>
       </c>
+      <c r="K8">
+        <v>0.14615751119401199</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-0.2</v>
       </c>
@@ -3147,8 +3171,11 @@
       <c r="J9">
         <v>1.6266809E-2</v>
       </c>
+      <c r="K9">
+        <v>0.14670801035414899</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-0.1</v>
       </c>
@@ -3179,8 +3206,14 @@
       <c r="J10">
         <v>8.0061969999999996E-3</v>
       </c>
+      <c r="K10">
+        <v>0.14667414117496402</v>
+      </c>
+      <c r="O10">
+        <v>-0.25</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -3211,8 +3244,11 @@
       <c r="J11">
         <v>6.0966899999999997E-4</v>
       </c>
+      <c r="K11">
+        <v>-0.20665459344629519</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.1</v>
       </c>
@@ -3243,8 +3279,11 @@
       <c r="J12">
         <v>-5.9241620000000002E-3</v>
       </c>
+      <c r="K12">
+        <v>-0.64508339246755697</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.2</v>
       </c>
@@ -3275,8 +3314,11 @@
       <c r="J13">
         <v>-1.1621298E-2</v>
       </c>
+      <c r="K13">
+        <v>-0.64364549827671502</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.3</v>
       </c>
@@ -3307,8 +3349,11 @@
       <c r="J14">
         <v>-1.6524926999999998E-2</v>
       </c>
+      <c r="K14">
+        <v>-0.64185866803226399</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.4</v>
       </c>
@@ -3339,8 +3384,11 @@
       <c r="J15">
         <v>-2.0689523000000001E-2</v>
       </c>
+      <c r="K15">
+        <v>-0.63978026603023208</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.5</v>
       </c>
@@ -3371,8 +3419,11 @@
       <c r="J16">
         <v>-2.4176418000000002E-2</v>
       </c>
+      <c r="K16">
+        <v>-0.63746468168104597</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.6</v>
       </c>
@@ -3403,8 +3454,11 @@
       <c r="J17">
         <v>-2.7050568000000001E-2</v>
       </c>
+      <c r="K17">
+        <v>-0.63496244722483208</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.7</v>
       </c>
@@ -3435,8 +3489,11 @@
       <c r="J18">
         <v>-2.9378239E-2</v>
       </c>
+      <c r="K18">
+        <v>-0.63231965821632596</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.8</v>
       </c>
@@ -3467,8 +3524,11 @@
       <c r="J19">
         <v>-3.1225379000000001E-2</v>
       </c>
+      <c r="K19">
+        <v>-0.62957769360619797</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.9</v>
       </c>
@@ -3499,8 +3559,11 @@
       <c r="J20">
         <v>-3.2656391999999999E-2</v>
       </c>
+      <c r="K20">
+        <v>-0.62677305913481107</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3530,11 +3593,15 @@
       </c>
       <c r="J21">
         <v>-3.3733233000000001E-2</v>
+      </c>
+      <c r="K21">
+        <v>-0.62393753702199395</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>